--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Tyrobp</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H2">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>504.342828236707</v>
+        <v>2.115370666666667</v>
       </c>
       <c r="N2">
-        <v>504.342828236707</v>
+        <v>6.346112</v>
       </c>
       <c r="O2">
-        <v>0.4591911301794786</v>
+        <v>0.001904657994071903</v>
       </c>
       <c r="P2">
-        <v>0.4591911301794786</v>
+        <v>0.001904657994071903</v>
       </c>
       <c r="Q2">
-        <v>24453.63135064107</v>
+        <v>104.697990777088</v>
       </c>
       <c r="R2">
-        <v>24453.63135064107</v>
+        <v>942.2819169937919</v>
       </c>
       <c r="S2">
-        <v>0.3308841329739775</v>
+        <v>0.001358177500012216</v>
       </c>
       <c r="T2">
-        <v>0.3308841329739775</v>
+        <v>0.001358177500012216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H3">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>593.712702150377</v>
+        <v>1.490819333333333</v>
       </c>
       <c r="N3">
-        <v>593.712702150377</v>
+        <v>4.472458</v>
       </c>
       <c r="O3">
-        <v>0.5405600941238912</v>
+        <v>0.001342318396342648</v>
       </c>
       <c r="P3">
-        <v>0.5405600941238912</v>
+        <v>0.001342318396342648</v>
       </c>
       <c r="Q3">
-        <v>28786.8305718511</v>
+        <v>73.786495800092</v>
       </c>
       <c r="R3">
-        <v>28786.8305718511</v>
+        <v>664.0784622008279</v>
       </c>
       <c r="S3">
-        <v>0.3895170143957384</v>
+        <v>0.0009571832052995026</v>
       </c>
       <c r="T3">
-        <v>0.3895170143957384</v>
+        <v>0.0009571832052995023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H4">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I4">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J4">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.273237504361297</v>
+        <v>506.0597536666667</v>
       </c>
       <c r="N4">
-        <v>0.273237504361297</v>
+        <v>1518.179261</v>
       </c>
       <c r="O4">
-        <v>0.0002487756966303033</v>
+        <v>0.4556509979492679</v>
       </c>
       <c r="P4">
-        <v>0.0002487756966303033</v>
+        <v>0.4556509979492679</v>
       </c>
       <c r="Q4">
-        <v>13.24822884104618</v>
+        <v>25046.88197531721</v>
       </c>
       <c r="R4">
-        <v>13.24822884104618</v>
+        <v>225421.9377778549</v>
       </c>
       <c r="S4">
-        <v>0.0001792628935413916</v>
+        <v>0.3249165651780766</v>
       </c>
       <c r="T4">
-        <v>0.0001792628935413916</v>
+        <v>0.3249165651780765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.8189894391735</v>
+        <v>49.493922</v>
       </c>
       <c r="H5">
-        <v>12.8189894391735</v>
+        <v>148.481766</v>
       </c>
       <c r="I5">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J5">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>504.342828236707</v>
+        <v>600.6871643333334</v>
       </c>
       <c r="N5">
-        <v>504.342828236707</v>
+        <v>1802.061493</v>
       </c>
       <c r="O5">
-        <v>0.4591911301794786</v>
+        <v>0.5408525453776422</v>
       </c>
       <c r="P5">
-        <v>0.4591911301794786</v>
+        <v>0.5408525453776422</v>
       </c>
       <c r="Q5">
-        <v>6465.165388889242</v>
+        <v>29730.36365791518</v>
       </c>
       <c r="R5">
-        <v>6465.165388889242</v>
+        <v>267573.2729212366</v>
       </c>
       <c r="S5">
-        <v>0.08748069411702744</v>
+        <v>0.385672262549262</v>
       </c>
       <c r="T5">
-        <v>0.08748069411702744</v>
+        <v>0.385672262549262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.8189894391735</v>
+        <v>49.493922</v>
       </c>
       <c r="H6">
-        <v>12.8189894391735</v>
+        <v>148.481766</v>
       </c>
       <c r="I6">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J6">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>593.712702150377</v>
+        <v>0.2770803333333333</v>
       </c>
       <c r="N6">
-        <v>593.712702150377</v>
+        <v>0.831241</v>
       </c>
       <c r="O6">
-        <v>0.5405600941238912</v>
+        <v>0.0002494802826754905</v>
       </c>
       <c r="P6">
-        <v>0.5405600941238912</v>
+        <v>0.0002494802826754906</v>
       </c>
       <c r="Q6">
-        <v>7610.796858768845</v>
+        <v>13.713792405734</v>
       </c>
       <c r="R6">
-        <v>7610.796858768845</v>
+        <v>123.424131651606</v>
       </c>
       <c r="S6">
-        <v>0.1029823294440391</v>
+        <v>0.0001778999209732911</v>
       </c>
       <c r="T6">
-        <v>0.1029823294440391</v>
+        <v>0.0001778999209732911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H7">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I7">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J7">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.273237504361297</v>
+        <v>2.115370666666667</v>
       </c>
       <c r="N7">
-        <v>0.273237504361297</v>
+        <v>6.346112</v>
       </c>
       <c r="O7">
-        <v>0.0002487756966303033</v>
+        <v>0.001904657994071903</v>
       </c>
       <c r="P7">
-        <v>0.0002487756966303033</v>
+        <v>0.001904657994071903</v>
       </c>
       <c r="Q7">
-        <v>3.502628682793589</v>
+        <v>27.22452009736534</v>
       </c>
       <c r="R7">
-        <v>3.502628682793589</v>
+        <v>245.020680876288</v>
       </c>
       <c r="S7">
-        <v>4.73943619341247E-05</v>
+        <v>0.0003531656182743454</v>
       </c>
       <c r="T7">
-        <v>4.73943619341247E-05</v>
+        <v>0.0003531656182743453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.98248508901319</v>
+        <v>12.869858</v>
       </c>
       <c r="H8">
-        <v>5.98248508901319</v>
+        <v>38.609574</v>
       </c>
       <c r="I8">
-        <v>0.08890917181374212</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J8">
-        <v>0.08890917181374212</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>504.342828236707</v>
+        <v>1.490819333333333</v>
       </c>
       <c r="N8">
-        <v>504.342828236707</v>
+        <v>4.472458</v>
       </c>
       <c r="O8">
-        <v>0.4591911301794786</v>
+        <v>0.001342318396342648</v>
       </c>
       <c r="P8">
-        <v>0.4591911301794786</v>
+        <v>0.001342318396342648</v>
       </c>
       <c r="Q8">
-        <v>3017.22344967684</v>
+        <v>19.18663312365467</v>
       </c>
       <c r="R8">
-        <v>3017.22344967684</v>
+        <v>172.679698112892</v>
       </c>
       <c r="S8">
-        <v>0.04082630308847369</v>
+        <v>0.0002488954488631846</v>
       </c>
       <c r="T8">
-        <v>0.04082630308847369</v>
+        <v>0.0002488954488631845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.98248508901319</v>
+        <v>12.869858</v>
       </c>
       <c r="H9">
-        <v>5.98248508901319</v>
+        <v>38.609574</v>
       </c>
       <c r="I9">
-        <v>0.08890917181374212</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J9">
-        <v>0.08890917181374212</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>593.712702150377</v>
+        <v>506.0597536666667</v>
       </c>
       <c r="N9">
-        <v>593.712702150377</v>
+        <v>1518.179261</v>
       </c>
       <c r="O9">
-        <v>0.5405600941238912</v>
+        <v>0.4556509979492679</v>
       </c>
       <c r="P9">
-        <v>0.5405600941238912</v>
+        <v>0.4556509979492679</v>
       </c>
       <c r="Q9">
-        <v>3551.87738777236</v>
+        <v>6512.917169204979</v>
       </c>
       <c r="R9">
-        <v>3551.87738777236</v>
+        <v>58616.25452284481</v>
       </c>
       <c r="S9">
-        <v>0.04806075028411366</v>
+        <v>0.08448774893389113</v>
       </c>
       <c r="T9">
-        <v>0.04806075028411366</v>
+        <v>0.08448774893389112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.869858</v>
+      </c>
+      <c r="H10">
+        <v>38.609574</v>
+      </c>
+      <c r="I10">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="J10">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>600.6871643333334</v>
+      </c>
+      <c r="N10">
+        <v>1802.061493</v>
+      </c>
+      <c r="O10">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="P10">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="Q10">
+        <v>7730.758507392666</v>
+      </c>
+      <c r="R10">
+        <v>69576.82656653399</v>
+      </c>
+      <c r="S10">
+        <v>0.1002859957945487</v>
+      </c>
+      <c r="T10">
+        <v>0.1002859957945487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.869858</v>
+      </c>
+      <c r="H11">
+        <v>38.609574</v>
+      </c>
+      <c r="I11">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="J11">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2770803333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.831241</v>
+      </c>
+      <c r="O11">
+        <v>0.0002494802826754905</v>
+      </c>
+      <c r="P11">
+        <v>0.0002494802826754906</v>
+      </c>
+      <c r="Q11">
+        <v>3.565984544592667</v>
+      </c>
+      <c r="R11">
+        <v>32.093860901334</v>
+      </c>
+      <c r="S11">
+        <v>4.62591491766904E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.625914917669039E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.09074</v>
+      </c>
+      <c r="H12">
+        <v>0.27222</v>
+      </c>
+      <c r="I12">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J12">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>2.115370666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.346112</v>
+      </c>
+      <c r="O12">
+        <v>0.001904657994071903</v>
+      </c>
+      <c r="P12">
+        <v>0.001904657994071903</v>
+      </c>
+      <c r="Q12">
+        <v>0.1919487342933333</v>
+      </c>
+      <c r="R12">
+        <v>1.72753860864</v>
+      </c>
+      <c r="S12">
+        <v>2.490023448760204E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.490023448760203E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.09074</v>
+      </c>
+      <c r="H13">
+        <v>0.27222</v>
+      </c>
+      <c r="I13">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J13">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.490819333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.472458</v>
+      </c>
+      <c r="O13">
+        <v>0.001342318396342648</v>
+      </c>
+      <c r="P13">
+        <v>0.001342318396342648</v>
+      </c>
+      <c r="Q13">
+        <v>0.1352769463066667</v>
+      </c>
+      <c r="R13">
+        <v>1.21749251676</v>
+      </c>
+      <c r="S13">
+        <v>1.754857981327018E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.754857981327017E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.09074</v>
+      </c>
+      <c r="H14">
+        <v>0.27222</v>
+      </c>
+      <c r="I14">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J14">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>506.0597536666667</v>
+      </c>
+      <c r="N14">
+        <v>1518.179261</v>
+      </c>
+      <c r="O14">
+        <v>0.4556509979492679</v>
+      </c>
+      <c r="P14">
+        <v>0.4556509979492679</v>
+      </c>
+      <c r="Q14">
+        <v>45.91986204771333</v>
+      </c>
+      <c r="R14">
+        <v>413.27875842942</v>
+      </c>
+      <c r="S14">
+        <v>0.000595687873033353</v>
+      </c>
+      <c r="T14">
+        <v>0.0005956878730333529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.09074</v>
+      </c>
+      <c r="H15">
+        <v>0.27222</v>
+      </c>
+      <c r="I15">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J15">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>600.6871643333334</v>
+      </c>
+      <c r="N15">
+        <v>1802.061493</v>
+      </c>
+      <c r="O15">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="P15">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="Q15">
+        <v>54.50635329160667</v>
+      </c>
+      <c r="R15">
+        <v>490.55717962446</v>
+      </c>
+      <c r="S15">
+        <v>0.0007070747212904251</v>
+      </c>
+      <c r="T15">
+        <v>0.0007070747212904249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09074</v>
+      </c>
+      <c r="H16">
+        <v>0.27222</v>
+      </c>
+      <c r="I16">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J16">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2770803333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.831241</v>
+      </c>
+      <c r="O16">
+        <v>0.0002494802826754905</v>
+      </c>
+      <c r="P16">
+        <v>0.0002494802826754906</v>
+      </c>
+      <c r="Q16">
+        <v>0.02514226944666667</v>
+      </c>
+      <c r="R16">
+        <v>0.22628042502</v>
+      </c>
+      <c r="S16">
+        <v>3.261539634930616E-07</v>
+      </c>
+      <c r="T16">
+        <v>3.261539634930616E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.195726</v>
+      </c>
+      <c r="I17">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J17">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.115370666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.346112</v>
+      </c>
+      <c r="O17">
+        <v>0.001904657994071903</v>
+      </c>
+      <c r="P17">
+        <v>0.001904657994071903</v>
+      </c>
+      <c r="Q17">
+        <v>0.8431345685902223</v>
+      </c>
+      <c r="R17">
+        <v>7.588211117312</v>
+      </c>
+      <c r="S17">
+        <v>1.093742479719434E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.093742479719434E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.195726</v>
+      </c>
+      <c r="I18">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J18">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.490819333333333</v>
+      </c>
+      <c r="N18">
+        <v>4.472458</v>
+      </c>
+      <c r="O18">
+        <v>0.001342318396342648</v>
+      </c>
+      <c r="P18">
+        <v>0.001342318396342648</v>
+      </c>
+      <c r="Q18">
+        <v>0.5942038127231111</v>
+      </c>
+      <c r="R18">
+        <v>5.347834314508</v>
+      </c>
+      <c r="S18">
+        <v>7.708211426714531E-06</v>
+      </c>
+      <c r="T18">
+        <v>7.70821142671453E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="H10">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="I10">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="J10">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.273237504361297</v>
-      </c>
-      <c r="N10">
-        <v>0.273237504361297</v>
-      </c>
-      <c r="O10">
-        <v>0.0002487756966303033</v>
-      </c>
-      <c r="P10">
-        <v>0.0002487756966303033</v>
-      </c>
-      <c r="Q10">
-        <v>1.634639295600636</v>
-      </c>
-      <c r="R10">
-        <v>1.634639295600636</v>
-      </c>
-      <c r="S10">
-        <v>2.211844115478702E-05</v>
-      </c>
-      <c r="T10">
-        <v>2.211844115478702E-05</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.195726</v>
+      </c>
+      <c r="I19">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J19">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>506.0597536666667</v>
+      </c>
+      <c r="N19">
+        <v>1518.179261</v>
+      </c>
+      <c r="O19">
+        <v>0.4556509979492679</v>
+      </c>
+      <c r="P19">
+        <v>0.4556509979492679</v>
+      </c>
+      <c r="Q19">
+        <v>201.7029350042762</v>
+      </c>
+      <c r="R19">
+        <v>1815.326415038486</v>
+      </c>
+      <c r="S19">
+        <v>0.002616558216408342</v>
+      </c>
+      <c r="T19">
+        <v>0.002616558216408342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.195726</v>
+      </c>
+      <c r="I20">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J20">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>600.6871643333334</v>
+      </c>
+      <c r="N20">
+        <v>1802.061493</v>
+      </c>
+      <c r="O20">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="P20">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="Q20">
+        <v>239.4190867532131</v>
+      </c>
+      <c r="R20">
+        <v>2154.771780778918</v>
+      </c>
+      <c r="S20">
+        <v>0.003105824804164701</v>
+      </c>
+      <c r="T20">
+        <v>0.0031058248041647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.195726</v>
+      </c>
+      <c r="I21">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J21">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2770803333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.831241</v>
+      </c>
+      <c r="O21">
+        <v>0.0002494802826754905</v>
+      </c>
+      <c r="P21">
+        <v>0.0002494802826754906</v>
+      </c>
+      <c r="Q21">
+        <v>0.1104373862184444</v>
+      </c>
+      <c r="R21">
+        <v>0.9939364759660001</v>
+      </c>
+      <c r="S21">
+        <v>1.43263086529904E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.43263086529904E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.555354</v>
+      </c>
+      <c r="H22">
+        <v>19.666062</v>
+      </c>
+      <c r="I22">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J22">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>2.115370666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.346112</v>
+      </c>
+      <c r="O22">
+        <v>0.001904657994071903</v>
+      </c>
+      <c r="P22">
+        <v>0.001904657994071903</v>
+      </c>
+      <c r="Q22">
+        <v>13.867003561216</v>
+      </c>
+      <c r="R22">
+        <v>124.803032050944</v>
+      </c>
+      <c r="S22">
+        <v>0.0001798874275393872</v>
+      </c>
+      <c r="T22">
+        <v>0.0001798874275393872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.555354</v>
+      </c>
+      <c r="H23">
+        <v>19.666062</v>
+      </c>
+      <c r="I23">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J23">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.490819333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.472458</v>
+      </c>
+      <c r="O23">
+        <v>0.001342318396342648</v>
+      </c>
+      <c r="P23">
+        <v>0.001342318396342648</v>
+      </c>
+      <c r="Q23">
+        <v>9.772848480044001</v>
+      </c>
+      <c r="R23">
+        <v>87.955636320396</v>
+      </c>
+      <c r="S23">
+        <v>0.0001267766727719197</v>
+      </c>
+      <c r="T23">
+        <v>0.0001267766727719196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.555354</v>
+      </c>
+      <c r="H24">
+        <v>19.666062</v>
+      </c>
+      <c r="I24">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J24">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>506.0597536666667</v>
+      </c>
+      <c r="N24">
+        <v>1518.179261</v>
+      </c>
+      <c r="O24">
+        <v>0.4556509979492679</v>
+      </c>
+      <c r="P24">
+        <v>0.4556509979492679</v>
+      </c>
+      <c r="Q24">
+        <v>3317.400830437798</v>
+      </c>
+      <c r="R24">
+        <v>29856.60747394018</v>
+      </c>
+      <c r="S24">
+        <v>0.04303443774785852</v>
+      </c>
+      <c r="T24">
+        <v>0.04303443774785851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.555354</v>
+      </c>
+      <c r="H25">
+        <v>19.666062</v>
+      </c>
+      <c r="I25">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J25">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>600.6871643333334</v>
+      </c>
+      <c r="N25">
+        <v>1802.061493</v>
+      </c>
+      <c r="O25">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="P25">
+        <v>0.5408525453776422</v>
+      </c>
+      <c r="Q25">
+        <v>3937.717005461175</v>
+      </c>
+      <c r="R25">
+        <v>35439.45304915057</v>
+      </c>
+      <c r="S25">
+        <v>0.05108138750837639</v>
+      </c>
+      <c r="T25">
+        <v>0.05108138750837637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.555354</v>
+      </c>
+      <c r="H26">
+        <v>19.666062</v>
+      </c>
+      <c r="I26">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J26">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2770803333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.831241</v>
+      </c>
+      <c r="O26">
+        <v>0.0002494802826754905</v>
+      </c>
+      <c r="P26">
+        <v>0.0002494802826754906</v>
+      </c>
+      <c r="Q26">
+        <v>1.816359671438</v>
+      </c>
+      <c r="R26">
+        <v>16.347237042942</v>
+      </c>
+      <c r="S26">
+        <v>2.356242769671694E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.356242769671694E-05</v>
       </c>
     </row>
   </sheetData>
